--- a/Data Files/WorkSheets/Employee.xlsx
+++ b/Data Files/WorkSheets/Employee.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saomflau\Desktop\Teste\katalon\Data Files\WorkSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\git\katalon\Data Files\WorkSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{31155F45-B75B-464F-8BC4-0618FB43E9EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="AddEmployee" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>First Name</t>
   </si>
@@ -66,12 +66,24 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruna </t>
+  </si>
+  <si>
+    <t>Sampaio</t>
+  </si>
+  <si>
+    <t>Silva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,11 +431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337FDA89-1CFD-41C2-BF4F-7899F5F1F87F}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +503,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
